--- a/team_specific_matrix/Prairie View_A.xlsx
+++ b/team_specific_matrix/Prairie View_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1851851851851852</v>
+        <v>0.1796610169491525</v>
       </c>
       <c r="C2">
-        <v>0.5833333333333334</v>
+        <v>0.6033898305084746</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004629629629629629</v>
+        <v>0.006779661016949152</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.125</v>
+        <v>0.1254237288135593</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1018518518518518</v>
+        <v>0.0847457627118644</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03149606299212598</v>
+        <v>0.02747252747252747</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03149606299212598</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6850393700787402</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2519685039370079</v>
+        <v>0.2087912087912088</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03846153846153846</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5769230769230769</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3846153846153846</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06077348066298342</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005524861878453038</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03867403314917127</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3977900552486188</v>
+        <v>0.3982683982683983</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02762430939226519</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1160220994475138</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="R6">
-        <v>0.01657458563535912</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="S6">
-        <v>0.3370165745856354</v>
+        <v>0.3246753246753247</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1105263157894737</v>
+        <v>0.1134453781512605</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005263157894736842</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05263157894736842</v>
+        <v>0.04621848739495799</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1421052631578947</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03684210526315789</v>
+        <v>0.03361344537815126</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1578947368421053</v>
+        <v>0.1848739495798319</v>
       </c>
       <c r="R7">
-        <v>0.05263157894736842</v>
+        <v>0.04201680672268908</v>
       </c>
       <c r="S7">
-        <v>0.4421052631578947</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08645533141210375</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02305475504322766</v>
+        <v>0.0259433962264151</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06340057636887608</v>
+        <v>0.06132075471698113</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1239193083573487</v>
+        <v>0.1061320754716981</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01440922190201729</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1556195965417868</v>
+        <v>0.160377358490566</v>
       </c>
       <c r="R8">
-        <v>0.05475504322766571</v>
+        <v>0.04952830188679246</v>
       </c>
       <c r="S8">
-        <v>0.4783861671469741</v>
+        <v>0.4882075471698113</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1382113821138211</v>
+        <v>0.1506849315068493</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008130081300813009</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04065040650406504</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1626016260162602</v>
+        <v>0.1164383561643836</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02439024390243903</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1869918699186992</v>
+        <v>0.1780821917808219</v>
       </c>
       <c r="R9">
-        <v>0.06504065040650407</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="S9">
-        <v>0.3739837398373984</v>
+        <v>0.410958904109589</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1307966706302021</v>
+        <v>0.1252268602540835</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0202140309155767</v>
+        <v>0.0190562613430127</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06302021403091558</v>
+        <v>0.06261343012704174</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1093935790725327</v>
+        <v>0.1143375680580762</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0178359096313912</v>
+        <v>0.01633393829401089</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2282996432818074</v>
+        <v>0.2404718693284937</v>
       </c>
       <c r="R10">
-        <v>0.05112960760998811</v>
+        <v>0.0499092558983666</v>
       </c>
       <c r="S10">
-        <v>0.3793103448275862</v>
+        <v>0.3720508166969147</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1518151815181518</v>
+        <v>0.1461538461538462</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1122112211221122</v>
+        <v>0.1102564102564103</v>
       </c>
       <c r="K11">
-        <v>0.2145214521452145</v>
+        <v>0.2102564102564103</v>
       </c>
       <c r="L11">
-        <v>0.495049504950495</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0264026402640264</v>
+        <v>0.02051282051282051</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.006024096385542169</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="G12">
-        <v>0.7289156626506024</v>
+        <v>0.7326732673267327</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1987951807228916</v>
+        <v>0.202970297029703</v>
       </c>
       <c r="K12">
-        <v>0.01204819277108434</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="L12">
-        <v>0.01807228915662651</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03614457831325301</v>
+        <v>0.03465346534653466</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02564102564102564</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1282051282051282</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1794871794871795</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04938271604938271</v>
+        <v>0.03980099502487562</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1481481481481481</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="I15">
-        <v>0.05555555555555555</v>
+        <v>0.07960199004975124</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3233830845771145</v>
       </c>
       <c r="K15">
-        <v>0.08641975308641975</v>
+        <v>0.0945273631840796</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01234567901234568</v>
+        <v>0.01990049751243781</v>
       </c>
       <c r="N15">
-        <v>0.006172839506172839</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="O15">
-        <v>0.09876543209876543</v>
+        <v>0.0845771144278607</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2098765432098765</v>
+        <v>0.1890547263681592</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04724409448818898</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1574803149606299</v>
+        <v>0.1344086021505376</v>
       </c>
       <c r="I16">
-        <v>0.07874015748031496</v>
+        <v>0.05913978494623656</v>
       </c>
       <c r="J16">
-        <v>0.3779527559055118</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="K16">
-        <v>0.1338582677165354</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01574803149606299</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07086614173228346</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1181102362204724</v>
+        <v>0.1290322580645161</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03785488958990536</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1892744479495268</v>
+        <v>0.1939252336448598</v>
       </c>
       <c r="I17">
-        <v>0.0694006309148265</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="J17">
-        <v>0.3470031545741325</v>
+        <v>0.338785046728972</v>
       </c>
       <c r="K17">
-        <v>0.1640378548895899</v>
+        <v>0.1658878504672897</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02523659305993691</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05678233438485805</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.110410094637224</v>
+        <v>0.1004672897196262</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.06976744186046512</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2093023255813954</v>
+        <v>0.2075471698113208</v>
       </c>
       <c r="I18">
-        <v>0.04651162790697674</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="J18">
-        <v>0.3255813953488372</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="K18">
-        <v>0.1511627906976744</v>
+        <v>0.1415094339622641</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01162790697674419</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08139534883720931</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1046511627906977</v>
+        <v>0.1037735849056604</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.04483837330552659</v>
+        <v>0.03791069924178601</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2262773722627737</v>
+        <v>0.2240943555181129</v>
       </c>
       <c r="I19">
-        <v>0.07820646506777894</v>
+        <v>0.06908171861836562</v>
       </c>
       <c r="J19">
-        <v>0.3076120959332638</v>
+        <v>0.3302443133951137</v>
       </c>
       <c r="K19">
-        <v>0.1293013555787279</v>
+        <v>0.1381634372367312</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02815432742440042</v>
+        <v>0.02358887952822241</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05735140771637122</v>
+        <v>0.05897219882055602</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1282586027111575</v>
+        <v>0.117944397641112</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Prairie View_A.xlsx
+++ b/team_specific_matrix/Prairie View_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1796610169491525</v>
+        <v>0.1837349397590362</v>
       </c>
       <c r="C2">
-        <v>0.6033898305084746</v>
+        <v>0.5903614457831325</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006779661016949152</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1254237288135593</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0847457627118644</v>
+        <v>0.08734939759036145</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02747252747252747</v>
+        <v>0.025</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03296703296703297</v>
+        <v>0.03</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7307692307692307</v>
+        <v>0.73</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2087912087912088</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02941176470588235</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6176470588235294</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3529411764705883</v>
+        <v>0.3421052631578947</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05194805194805195</v>
+        <v>0.06130268199233716</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008658008658008658</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04761904761904762</v>
+        <v>0.04980842911877394</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3982683982683983</v>
+        <v>0.3984674329501915</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02164502164502164</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1212121212121212</v>
+        <v>0.1226053639846743</v>
       </c>
       <c r="R6">
-        <v>0.02597402597402598</v>
+        <v>0.03065134099616858</v>
       </c>
       <c r="S6">
-        <v>0.3246753246753247</v>
+        <v>0.3026819923371648</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1134453781512605</v>
+        <v>0.1158301158301158</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.008403361344537815</v>
+        <v>0.01158301158301158</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04621848739495799</v>
+        <v>0.04633204633204633</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1428571428571428</v>
+        <v>0.1505791505791506</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03361344537815126</v>
+        <v>0.03474903474903475</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1848739495798319</v>
+        <v>0.1853281853281853</v>
       </c>
       <c r="R7">
-        <v>0.04201680672268908</v>
+        <v>0.03861003861003861</v>
       </c>
       <c r="S7">
-        <v>0.4285714285714285</v>
+        <v>0.416988416988417</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09433962264150944</v>
+        <v>0.09829059829059829</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0259433962264151</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06132075471698113</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1061320754716981</v>
+        <v>0.1068376068376068</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01415094339622642</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.160377358490566</v>
+        <v>0.1623931623931624</v>
       </c>
       <c r="R8">
-        <v>0.04952830188679246</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="S8">
-        <v>0.4882075471698113</v>
+        <v>0.4829059829059829</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1506849315068493</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.00684931506849315</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0410958904109589</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1164383561643836</v>
+        <v>0.1097560975609756</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02054794520547945</v>
+        <v>0.03048780487804878</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1780821917808219</v>
+        <v>0.1768292682926829</v>
       </c>
       <c r="R9">
-        <v>0.07534246575342465</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="S9">
-        <v>0.410958904109589</v>
+        <v>0.4329268292682927</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1252268602540835</v>
+        <v>0.1236777868185517</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0190562613430127</v>
+        <v>0.01790073230268511</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06261343012704174</v>
+        <v>0.06346623270951994</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1143375680580762</v>
+        <v>0.1106590724165989</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01633393829401089</v>
+        <v>0.01952807160292921</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2404718693284937</v>
+        <v>0.2351505288852726</v>
       </c>
       <c r="R10">
-        <v>0.0499092558983666</v>
+        <v>0.04963384865744508</v>
       </c>
       <c r="S10">
-        <v>0.3720508166969147</v>
+        <v>0.3799837266069976</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1461538461538462</v>
+        <v>0.1401869158878505</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1102564102564103</v>
+        <v>0.1168224299065421</v>
       </c>
       <c r="K11">
-        <v>0.2102564102564103</v>
+        <v>0.2079439252336449</v>
       </c>
       <c r="L11">
-        <v>0.5128205128205128</v>
+        <v>0.5163551401869159</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02051282051282051</v>
+        <v>0.01869158878504673</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.004950495049504951</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="G12">
-        <v>0.7326732673267327</v>
+        <v>0.7377777777777778</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.202970297029703</v>
+        <v>0.1911111111111111</v>
       </c>
       <c r="K12">
-        <v>0.009900990099009901</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="L12">
-        <v>0.01485148514851485</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03465346534653466</v>
+        <v>0.03555555555555556</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02040816326530612</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="G13">
-        <v>0.7551020408163265</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1224489795918367</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1020408163265306</v>
+        <v>0.09433962264150944</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03980099502487562</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1641791044776119</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I15">
-        <v>0.07960199004975124</v>
+        <v>0.0735930735930736</v>
       </c>
       <c r="J15">
-        <v>0.3233830845771145</v>
+        <v>0.329004329004329</v>
       </c>
       <c r="K15">
-        <v>0.0945273631840796</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01990049751243781</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="N15">
-        <v>0.004975124378109453</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="O15">
-        <v>0.0845771144278607</v>
+        <v>0.08225108225108226</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1890547263681592</v>
+        <v>0.1861471861471861</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.05376344086021505</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1344086021505376</v>
+        <v>0.125</v>
       </c>
       <c r="I16">
-        <v>0.05913978494623656</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="J16">
-        <v>0.3870967741935484</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="K16">
-        <v>0.1290322580645161</v>
+        <v>0.125</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02150537634408602</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08602150537634409</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1290322580645161</v>
+        <v>0.1298076923076923</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0514018691588785</v>
+        <v>0.05106382978723404</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1939252336448598</v>
+        <v>0.1978723404255319</v>
       </c>
       <c r="I17">
-        <v>0.06542056074766354</v>
+        <v>0.06808510638297872</v>
       </c>
       <c r="J17">
-        <v>0.338785046728972</v>
+        <v>0.3319148936170213</v>
       </c>
       <c r="K17">
-        <v>0.1658878504672897</v>
+        <v>0.1617021276595745</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02803738317757009</v>
+        <v>0.0276595744680851</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05607476635514019</v>
+        <v>0.0574468085106383</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1004672897196262</v>
+        <v>0.1042553191489362</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05660377358490566</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2075471698113208</v>
+        <v>0.1949152542372881</v>
       </c>
       <c r="I18">
-        <v>0.05660377358490566</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="J18">
-        <v>0.3396226415094339</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="K18">
-        <v>0.1415094339622641</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01886792452830189</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07547169811320754</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1037735849056604</v>
+        <v>0.09322033898305085</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03791069924178601</v>
+        <v>0.03933434190620273</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2240943555181129</v>
+        <v>0.2186081694402421</v>
       </c>
       <c r="I19">
-        <v>0.06908171861836562</v>
+        <v>0.07110438729198185</v>
       </c>
       <c r="J19">
-        <v>0.3302443133951137</v>
+        <v>0.3305597579425114</v>
       </c>
       <c r="K19">
-        <v>0.1381634372367312</v>
+        <v>0.1391830559757943</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02358887952822241</v>
+        <v>0.02344931921331316</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05897219882055602</v>
+        <v>0.06127080181543117</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.117944397641112</v>
+        <v>0.1164901664145234</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Prairie View_A.xlsx
+++ b/team_specific_matrix/Prairie View_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1837349397590362</v>
+        <v>0.1895043731778426</v>
       </c>
       <c r="C2">
-        <v>0.5903614457831325</v>
+        <v>0.5801749271137027</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006024096385542169</v>
+        <v>0.008746355685131196</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1325301204819277</v>
+        <v>0.1370262390670554</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08734939759036145</v>
+        <v>0.08454810495626822</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.025</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.73</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.215</v>
+        <v>0.2167487684729064</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06130268199233716</v>
+        <v>0.06319702602230483</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01149425287356322</v>
+        <v>0.01115241635687732</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04980842911877394</v>
+        <v>0.05204460966542751</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3984674329501915</v>
+        <v>0.3940520446096654</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02298850574712644</v>
+        <v>0.02602230483271376</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1226053639846743</v>
+        <v>0.1189591078066914</v>
       </c>
       <c r="R6">
-        <v>0.03065134099616858</v>
+        <v>0.03345724907063197</v>
       </c>
       <c r="S6">
-        <v>0.3026819923371648</v>
+        <v>0.3011152416356878</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1158301158301158</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01158301158301158</v>
+        <v>0.01132075471698113</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04633204633204633</v>
+        <v>0.04528301886792453</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1505791505791506</v>
+        <v>0.1471698113207547</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03474903474903475</v>
+        <v>0.0339622641509434</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1853281853281853</v>
+        <v>0.1849056603773585</v>
       </c>
       <c r="R7">
-        <v>0.03861003861003861</v>
+        <v>0.04150943396226415</v>
       </c>
       <c r="S7">
-        <v>0.416988416988417</v>
+        <v>0.4226415094339623</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09829059829059829</v>
+        <v>0.09959349593495935</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05982905982905983</v>
+        <v>0.05894308943089431</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1068376068376068</v>
+        <v>0.1056910569105691</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01282051282051282</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1623931623931624</v>
+        <v>0.1626016260162602</v>
       </c>
       <c r="R8">
-        <v>0.05128205128205128</v>
+        <v>0.05284552845528456</v>
       </c>
       <c r="S8">
-        <v>0.4829059829059829</v>
+        <v>0.483739837398374</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1341463414634146</v>
+        <v>0.1317365269461078</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006097560975609756</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03658536585365853</v>
+        <v>0.03592814371257485</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1097560975609756</v>
+        <v>0.1137724550898204</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03048780487804878</v>
+        <v>0.02994011976047904</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1768292682926829</v>
+        <v>0.1736526946107785</v>
       </c>
       <c r="R9">
-        <v>0.07317073170731707</v>
+        <v>0.07784431137724551</v>
       </c>
       <c r="S9">
-        <v>0.4329268292682927</v>
+        <v>0.4311377245508982</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1236777868185517</v>
+        <v>0.1217596229379419</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01790073230268511</v>
+        <v>0.01728201099764336</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06346623270951994</v>
+        <v>0.06284367635506677</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1106590724165989</v>
+        <v>0.1115475255302435</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01952807160292921</v>
+        <v>0.01885310290652003</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2351505288852726</v>
+        <v>0.2411626080125687</v>
       </c>
       <c r="R10">
-        <v>0.04963384865744508</v>
+        <v>0.04948939512961508</v>
       </c>
       <c r="S10">
-        <v>0.3799837266069976</v>
+        <v>0.3770620581304006</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1401869158878505</v>
+        <v>0.1380090497737557</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1168224299065421</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K11">
-        <v>0.2079439252336449</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="L11">
-        <v>0.5163551401869159</v>
+        <v>0.5203619909502263</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01869158878504673</v>
+        <v>0.01809954751131222</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.004444444444444444</v>
+        <v>0.004291845493562232</v>
       </c>
       <c r="G12">
-        <v>0.7377777777777778</v>
+        <v>0.7253218884120172</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1911111111111111</v>
+        <v>0.2017167381974249</v>
       </c>
       <c r="K12">
-        <v>0.008888888888888889</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="L12">
-        <v>0.02222222222222222</v>
+        <v>0.02145922746781116</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03555555555555556</v>
+        <v>0.03862660944206009</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01886792452830189</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="G13">
-        <v>0.7358490566037735</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1509433962264151</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09433962264150944</v>
+        <v>0.08928571428571429</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03896103896103896</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1818181818181818</v>
+        <v>0.1875</v>
       </c>
       <c r="I15">
-        <v>0.0735930735930736</v>
+        <v>0.075</v>
       </c>
       <c r="J15">
-        <v>0.329004329004329</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="K15">
-        <v>0.08658008658008658</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01731601731601732</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N15">
-        <v>0.004329004329004329</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="O15">
-        <v>0.08225108225108226</v>
+        <v>0.07916666666666666</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1861471861471861</v>
+        <v>0.1958333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0673076923076923</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.125</v>
+        <v>0.1226415094339623</v>
       </c>
       <c r="I16">
-        <v>0.05288461538461538</v>
+        <v>0.05188679245283019</v>
       </c>
       <c r="J16">
-        <v>0.4038461538461539</v>
+        <v>0.4056603773584906</v>
       </c>
       <c r="K16">
-        <v>0.125</v>
+        <v>0.1226415094339623</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01923076923076923</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07692307692307693</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1298076923076923</v>
+        <v>0.1367924528301887</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.05106382978723404</v>
+        <v>0.0508130081300813</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1978723404255319</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="I17">
-        <v>0.06808510638297872</v>
+        <v>0.06707317073170732</v>
       </c>
       <c r="J17">
-        <v>0.3319148936170213</v>
+        <v>0.3313008130081301</v>
       </c>
       <c r="K17">
-        <v>0.1617021276595745</v>
+        <v>0.1605691056910569</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0276595744680851</v>
+        <v>0.02845528455284553</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0574468085106383</v>
+        <v>0.05691056910569105</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1042553191489362</v>
+        <v>0.1097560975609756</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05084745762711865</v>
+        <v>0.048</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1949152542372881</v>
+        <v>0.208</v>
       </c>
       <c r="I18">
-        <v>0.05084745762711865</v>
+        <v>0.048</v>
       </c>
       <c r="J18">
-        <v>0.3898305084745763</v>
+        <v>0.368</v>
       </c>
       <c r="K18">
-        <v>0.1355932203389831</v>
+        <v>0.136</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01694915254237288</v>
+        <v>0.016</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06779661016949153</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09322033898305085</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03933434190620273</v>
+        <v>0.03854545454545454</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2186081694402421</v>
+        <v>0.2210909090909091</v>
       </c>
       <c r="I19">
-        <v>0.07110438729198185</v>
+        <v>0.06909090909090909</v>
       </c>
       <c r="J19">
-        <v>0.3305597579425114</v>
+        <v>0.3294545454545454</v>
       </c>
       <c r="K19">
-        <v>0.1391830559757943</v>
+        <v>0.1396363636363636</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02344931921331316</v>
+        <v>0.02327272727272727</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06127080181543117</v>
+        <v>0.06254545454545454</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1164901664145234</v>
+        <v>0.1163636363636364</v>
       </c>
     </row>
   </sheetData>
